--- a/newGenO3vsDistance.xlsx
+++ b/newGenO3vsDistance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\Documents\GitHub\Jetbot_O3_Sensing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EDE7DA5-C7F6-4ADD-8BF9-D71BDBB5E1AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55925FF3-6BC2-408F-A3AE-BBC996EB92CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{97415974-EB59-43B3-85D0-B327F656CB2C}"/>
   </bookViews>
@@ -132,7 +132,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> vs distance with generator set 700 ppb</a:t>
+              <a:t> vs distance with generator set at 700 ppb with 10 min avg at each point</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -197,14 +197,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -264,16 +276,64 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>743.47</c:v>
                 </c:pt>
@@ -305,34 +365,16 @@
                   <c:v>58.63</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>54.44</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>51.28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.02</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>47.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -352,6 +394,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="970551391"/>
         <c:axId val="1083226767"/>
@@ -573,6 +616,45 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -582,7 +664,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="span"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1179,15 +1261,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>600074</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1515,7 +1597,7 @@
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1699,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,194 +1707,146 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>51.28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>49.02</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>47.56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
